--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Nodes_test(Finished)/2MB/2MB.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Nodes_test(Finished)/2MB/2MB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Nodes_test(SWIB)\2MB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Nodes_test(Finished)\2MB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65600B8D-4FA1-49EC-9659-7921C09A2FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA367D3B-62E2-4B71-8057-4D01B2047017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7201,7 +7201,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7238,19 +7238,19 @@
         <v>8397.1</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*50/1000000</f>
-        <v>0.41985499999999998</v>
+        <f>B2*50*2/1000000</f>
+        <v>0.83970999999999996</v>
       </c>
       <c r="D2" s="1">
         <f>E2/C2</f>
-        <v>9753.3672339259992</v>
+        <v>4876.6836169629996</v>
       </c>
       <c r="E2">
         <v>4095</v>
       </c>
       <c r="G2" s="1">
         <f>FLOOR(D2,1)</f>
-        <v>9753</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7261,19 +7261,19 @@
         <v>8547.7000000000007</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>0.42738500000000007</v>
+        <f t="shared" ref="C3:C11" si="0">B3*50*2/1000000</f>
+        <v>0.85477000000000014</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="1">E3/C3</f>
-        <v>9581.5248546392577</v>
+        <v>4790.7624273196288</v>
       </c>
       <c r="E3">
         <v>4095</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G11" si="2">FLOOR(D3,1)</f>
-        <v>9581</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7285,18 +7285,18 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.43314999999999998</v>
+        <v>0.86629999999999996</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>9453.9997691330955</v>
+        <v>4726.9998845665477</v>
       </c>
       <c r="E4">
         <v>4095</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="2"/>
-        <v>9453</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7308,18 +7308,18 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.43819999999999998</v>
+        <v>0.87639999999999996</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>9345.0479233226833</v>
+        <v>4672.5239616613417</v>
       </c>
       <c r="E5">
         <v>4095</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>9345</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7331,18 +7331,18 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.45083999999999996</v>
+        <v>0.90167999999999993</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>9083.0449826989625</v>
+        <v>4541.5224913494812</v>
       </c>
       <c r="E6">
         <v>4095</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>9083</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7354,18 +7354,18 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.46993999999999997</v>
+        <v>0.93987999999999994</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>8713.8783674511651</v>
+        <v>4356.9391837255826</v>
       </c>
       <c r="E7">
         <v>4095</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>8713</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7377,18 +7377,18 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.51271499999999992</v>
+        <v>1.0254299999999998</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>7986.8933032971545</v>
+        <v>3993.4466516485772</v>
       </c>
       <c r="E8">
         <v>4095</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>7986</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -7400,18 +7400,18 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.57672000000000001</v>
+        <v>1.15344</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>7100.4993757802749</v>
+        <v>3550.2496878901375</v>
       </c>
       <c r="E9">
         <v>4095</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>7100</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -7423,18 +7423,18 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.67430500000000004</v>
+        <v>1.3486100000000001</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>6072.9195245474966</v>
+        <v>3036.4597622737483</v>
       </c>
       <c r="E10">
         <v>4095</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>6072</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -7446,18 +7446,18 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.83677500000000005</v>
+        <v>1.6735500000000001</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>4893.7886528636727</v>
+        <v>2446.8943264318364</v>
       </c>
       <c r="E11">
         <v>4095</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>4893</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
